--- a/projeto.xlsx
+++ b/projeto.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="21075" windowHeight="8265"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="21075" windowHeight="8265" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
-    <sheet name="Plan2" sheetId="2" r:id="rId2"/>
-    <sheet name="Plan3" sheetId="3" r:id="rId3"/>
+    <sheet name="Páginas" sheetId="2" r:id="rId2"/>
+    <sheet name="Actions" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="27">
   <si>
     <t>Módulo</t>
   </si>
@@ -88,6 +88,15 @@
   </si>
   <si>
     <t>/user</t>
+  </si>
+  <si>
+    <t>Página</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Essa página vai mostrar um menu com opções. Usuário logado. Dashboard.</t>
   </si>
 </sst>
 </file>
@@ -158,6 +167,29 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:B3" totalsRowShown="0">
+  <autoFilter ref="A1:B3"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Página"/>
+    <tableColumn id="2" name="Descrição"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:C2" totalsRowShown="0">
+  <autoFilter ref="A1:C2"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Página"/>
+    <tableColumn id="2" name="Controller"/>
+    <tableColumn id="3" name="Action"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -449,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="A4:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,24 +700,71 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="68.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="20" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/projeto.xlsx
+++ b/projeto.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\www\rede.cb.org.br\www\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="21075" windowHeight="8265" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
-    <sheet name="Páginas" sheetId="2" r:id="rId2"/>
-    <sheet name="Actions" sheetId="3" r:id="rId3"/>
+    <sheet name="Rotas" sheetId="4" r:id="rId1"/>
+    <sheet name="Actions" sheetId="5" r:id="rId2"/>
+    <sheet name="Plan1" sheetId="1" r:id="rId3"/>
+    <sheet name="Páginas" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="77">
   <si>
     <t>Módulo</t>
   </si>
@@ -97,6 +103,156 @@
   </si>
   <si>
     <t>Essa página vai mostrar um menu com opções. Usuário logado. Dashboard.</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>application</t>
+  </si>
+  <si>
+    <t>/application</t>
+  </si>
+  <si>
+    <t>Child</t>
+  </si>
+  <si>
+    <t>/[:controller[/:action]]</t>
+  </si>
+  <si>
+    <t>TenilAcl</t>
+  </si>
+  <si>
+    <t>tenil-acl-admin</t>
+  </si>
+  <si>
+    <t>/admin/acl</t>
+  </si>
+  <si>
+    <t>/[:controller[/:action[/:id]]]</t>
+  </si>
+  <si>
+    <t>paginator</t>
+  </si>
+  <si>
+    <t>/[:controller[/page/:page]]</t>
+  </si>
+  <si>
+    <t>TenilUser</t>
+  </si>
+  <si>
+    <t>tenil-user</t>
+  </si>
+  <si>
+    <t>TenilUserRest</t>
+  </si>
+  <si>
+    <t>tenil-user-rest</t>
+  </si>
+  <si>
+    <t>/api/user[/:id]</t>
+  </si>
+  <si>
+    <t>Default Action</t>
+  </si>
+  <si>
+    <t>Roles</t>
+  </si>
+  <si>
+    <t>UserRest</t>
+  </si>
+  <si>
+    <t>Parametros</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Testa a permissão de um usuário.</t>
+  </si>
+  <si>
+    <t>Privileges</t>
+  </si>
+  <si>
+    <t>Extends</t>
+  </si>
+  <si>
+    <t>CrudController</t>
+  </si>
+  <si>
+    <t>Lista todos itens cadastrados.</t>
+  </si>
+  <si>
+    <t>Formulário de cadastro.</t>
+  </si>
+  <si>
+    <t>Formulário de edição.</t>
+  </si>
+  <si>
+    <t>Modificado</t>
+  </si>
+  <si>
+    <t>Não</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>Deleta o item selecionado.</t>
+  </si>
+  <si>
+    <t>Novo</t>
+  </si>
+  <si>
+    <t>Resouces</t>
+  </si>
+  <si>
+    <t>Fomulário de login.</t>
+  </si>
+  <si>
+    <t>Efetua logout e redireciona para home.</t>
+  </si>
+  <si>
+    <t>AAC</t>
+  </si>
+  <si>
+    <t>Mostra a página padrão da view.</t>
+  </si>
+  <si>
+    <t>Formulário de cadastro de novo usuário.</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>Ativação de um usuário cadastrado.</t>
+  </si>
+  <si>
+    <t>reset</t>
+  </si>
+  <si>
+    <t>Formulário de redefinição de senha.</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>Mostra os dados do perfil do usuário.</t>
   </si>
 </sst>
 </file>
@@ -165,28 +321,50 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:B3" totalsRowShown="0">
-  <autoFilter ref="A1:B3"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Página"/>
-    <tableColumn id="2" name="Descrição"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A1:F7" totalsRowShown="0">
+  <autoFilter ref="A1:F7"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Module"/>
+    <tableColumn id="2" name="Nome"/>
+    <tableColumn id="3" name="Rota"/>
+    <tableColumn id="4" name="Controller"/>
+    <tableColumn id="5" name="Default Action"/>
+    <tableColumn id="6" name="Child"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:C2" totalsRowShown="0">
-  <autoFilter ref="A1:C2"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A1:G23" totalsRowShown="0">
+  <autoFilter ref="A1:G23"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Module"/>
+    <tableColumn id="2" name="Controller"/>
+    <tableColumn id="6" name="Extends"/>
+    <tableColumn id="3" name="Action"/>
+    <tableColumn id="7" name="Modificado"/>
+    <tableColumn id="4" name="Parametros"/>
+    <tableColumn id="5" name="Descrição"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:B3" totalsRowShown="0">
+  <autoFilter ref="A1:B3"/>
+  <tableColumns count="2">
     <tableColumn id="1" name="Página"/>
-    <tableColumn id="2" name="Controller"/>
-    <tableColumn id="3" name="Action"/>
+    <tableColumn id="2" name="Descrição"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -235,7 +413,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -270,7 +448,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -479,10 +657,652 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="A4:G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,7 +1518,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -733,38 +1553,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="20" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/projeto.xlsx
+++ b/projeto.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="21075" windowHeight="8265" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="21075" windowHeight="8265" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Rotas" sheetId="4" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <sheet name="Plan1" sheetId="1" r:id="rId3"/>
     <sheet name="Páginas" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="76">
   <si>
     <t>Módulo</t>
   </si>
@@ -204,21 +204,9 @@
     <t>Formulário de edição.</t>
   </si>
   <si>
-    <t>Modificado</t>
-  </si>
-  <si>
-    <t>Não</t>
-  </si>
-  <si>
-    <t>Sim</t>
-  </si>
-  <si>
     <t>Deleta o item selecionado.</t>
   </si>
   <si>
-    <t>Novo</t>
-  </si>
-  <si>
     <t>Resouces</t>
   </si>
   <si>
@@ -253,6 +241,15 @@
   </si>
   <si>
     <t>Mostra os dados do perfil do usuário.</t>
+  </si>
+  <si>
+    <t>Landing page.</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>Resource</t>
   </si>
 </sst>
 </file>
@@ -306,16 +303,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -344,16 +346,23 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A1:G23" totalsRowShown="0">
-  <autoFilter ref="A1:G23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A1:G28" totalsRowShown="0">
+  <autoFilter ref="A1:G28"/>
+  <sortState ref="A2:H24">
+    <sortCondition ref="A2:A24"/>
+    <sortCondition ref="B2:B24"/>
+    <sortCondition ref="C2:C24"/>
+  </sortState>
   <tableColumns count="7">
     <tableColumn id="1" name="Module"/>
     <tableColumn id="2" name="Controller"/>
-    <tableColumn id="6" name="Extends"/>
     <tableColumn id="3" name="Action"/>
-    <tableColumn id="7" name="Modificado"/>
+    <tableColumn id="9" name="Extends"/>
     <tableColumn id="4" name="Parametros"/>
     <tableColumn id="5" name="Descrição"/>
+    <tableColumn id="8" name="Resource" dataDxfId="0">
+      <calculatedColumnFormula xml:space="preserve"> CONCATENATE(Tabela4[[#This Row],[Module]],"\Controller\",Tabela4[[#This Row],[Controller]],".",Tabela4[[#This Row],[Action]])</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -660,7 +669,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:F11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -809,20 +818,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G28" sqref="G25:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.140625" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -833,39 +846,40 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
       <c r="E1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F1" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" t="s">
-        <v>57</v>
+        <v>64</v>
+      </c>
+      <c r="F2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" t="str">
+        <f xml:space="preserve"> CONCATENATE(Tabela4[[#This Row],[Module]],"\Controller\",Tabela4[[#This Row],[Controller]],".",Tabela4[[#This Row],[Action]])</f>
+        <v>Application\Controller\Index.index</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -873,22 +887,20 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" t="s">
-        <v>63</v>
+        <v>58</v>
+      </c>
+      <c r="G3" t="str">
+        <f xml:space="preserve"> CONCATENATE(Tabela4[[#This Row],[Module]],"\Controller\",Tabela4[[#This Row],[Controller]],".",Tabela4[[#This Row],[Action]])</f>
+        <v>TenilAcl\Controller\Privileges.add</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -896,19 +908,23 @@
         <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" t="s">
-        <v>58</v>
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="str">
+        <f xml:space="preserve"> CONCATENATE(Tabela4[[#This Row],[Module]],"\Controller\",Tabela4[[#This Row],[Controller]],".",Tabela4[[#This Row],[Action]])</f>
+        <v>TenilAcl\Controller\Privileges.delete</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -916,22 +932,23 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" t="s">
         <v>59</v>
+      </c>
+      <c r="G5" t="str">
+        <f xml:space="preserve"> CONCATENATE(Tabela4[[#This Row],[Module]],"\Controller\",Tabela4[[#This Row],[Controller]],".",Tabela4[[#This Row],[Action]])</f>
+        <v>TenilAcl\Controller\Privileges.edit</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -939,19 +956,20 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6" t="s">
-        <v>53</v>
+        <v>56</v>
+      </c>
+      <c r="F6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" t="str">
+        <f xml:space="preserve"> CONCATENATE(Tabela4[[#This Row],[Module]],"\Controller\",Tabela4[[#This Row],[Controller]],".",Tabela4[[#This Row],[Action]])</f>
+        <v>TenilAcl\Controller\Privileges.index</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -959,19 +977,20 @@
         <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" t="s">
         <v>58</v>
+      </c>
+      <c r="G7" t="str">
+        <f xml:space="preserve"> CONCATENATE(Tabela4[[#This Row],[Module]],"\Controller\",Tabela4[[#This Row],[Controller]],".",Tabela4[[#This Row],[Action]])</f>
+        <v>TenilAcl\Controller\Resouces.add</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -979,22 +998,23 @@
         <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="G8" t="str">
+        <f xml:space="preserve"> CONCATENATE(Tabela4[[#This Row],[Module]],"\Controller\",Tabela4[[#This Row],[Controller]],".",Tabela4[[#This Row],[Action]])</f>
+        <v>TenilAcl\Controller\Resouces.delete</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1002,19 +1022,23 @@
         <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" t="s">
-        <v>57</v>
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" t="str">
+        <f xml:space="preserve"> CONCATENATE(Tabela4[[#This Row],[Module]],"\Controller\",Tabela4[[#This Row],[Controller]],".",Tabela4[[#This Row],[Action]])</f>
+        <v>TenilAcl\Controller\Resouces.edit</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1022,22 +1046,20 @@
         <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" t="s">
-        <v>63</v>
+        <v>57</v>
+      </c>
+      <c r="G10" t="str">
+        <f xml:space="preserve"> CONCATENATE(Tabela4[[#This Row],[Module]],"\Controller\",Tabela4[[#This Row],[Controller]],".",Tabela4[[#This Row],[Action]])</f>
+        <v>TenilAcl\Controller\Resouces.index</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1045,19 +1067,20 @@
         <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="F11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" t="str">
+        <f xml:space="preserve"> CONCATENATE(Tabela4[[#This Row],[Module]],"\Controller\",Tabela4[[#This Row],[Controller]],".",Tabela4[[#This Row],[Action]])</f>
+        <v>TenilAcl\Controller\Roles.add</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1065,22 +1088,23 @@
         <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" t="s">
-        <v>63</v>
+        <v>60</v>
+      </c>
+      <c r="G12" t="str">
+        <f xml:space="preserve"> CONCATENATE(Tabela4[[#This Row],[Module]],"\Controller\",Tabela4[[#This Row],[Controller]],".",Tabela4[[#This Row],[Action]])</f>
+        <v>TenilAcl\Controller\Roles.delete</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1088,19 +1112,23 @@
         <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" t="s">
-        <v>58</v>
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" t="str">
+        <f xml:space="preserve"> CONCATENATE(Tabela4[[#This Row],[Module]],"\Controller\",Tabela4[[#This Row],[Controller]],".",Tabela4[[#This Row],[Action]])</f>
+        <v>TenilAcl\Controller\Roles.edit</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1108,39 +1136,41 @@
         <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F14" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" t="s">
-        <v>59</v>
+        <v>57</v>
+      </c>
+      <c r="G14" t="str">
+        <f xml:space="preserve"> CONCATENATE(Tabela4[[#This Row],[Module]],"\Controller\",Tabela4[[#This Row],[Controller]],".",Tabela4[[#This Row],[Action]])</f>
+        <v>TenilAcl\Controller\Roles.index</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" t="s">
-        <v>66</v>
+        <v>56</v>
+      </c>
+      <c r="F15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" t="str">
+        <f xml:space="preserve"> CONCATENATE(Tabela4[[#This Row],[Module]],"\Controller\",Tabela4[[#This Row],[Controller]],".",Tabela4[[#This Row],[Action]])</f>
+        <v>TenilAcl\Controller\Roles.test</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1151,13 +1181,17 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" t="s">
-        <v>67</v>
+        <v>64</v>
+      </c>
+      <c r="F16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" t="str">
+        <f xml:space="preserve"> CONCATENATE(Tabela4[[#This Row],[Module]],"\Controller\",Tabela4[[#This Row],[Controller]],".",Tabela4[[#This Row],[Action]])</f>
+        <v>TenilUser\Controller\Auth.login</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1165,16 +1199,20 @@
         <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" t="s">
-        <v>69</v>
+        <v>64</v>
+      </c>
+      <c r="F17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" t="str">
+        <f xml:space="preserve"> CONCATENATE(Tabela4[[#This Row],[Module]],"\Controller\",Tabela4[[#This Row],[Controller]],".",Tabela4[[#This Row],[Action]])</f>
+        <v>TenilUser\Controller\Auth.logout</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1185,13 +1223,20 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" t="s">
         <v>68</v>
       </c>
-      <c r="D18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s">
-        <v>70</v>
+      <c r="G18" t="str">
+        <f xml:space="preserve"> CONCATENATE(Tabela4[[#This Row],[Module]],"\Controller\",Tabela4[[#This Row],[Controller]],".",Tabela4[[#This Row],[Action]])</f>
+        <v>TenilUser\Controller\Index.activate</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1202,16 +1247,17 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="F19" t="s">
-        <v>71</v>
-      </c>
-      <c r="G19" t="s">
-        <v>72</v>
+        <v>70</v>
+      </c>
+      <c r="G19" t="str">
+        <f xml:space="preserve"> CONCATENATE(Tabela4[[#This Row],[Module]],"\Controller\",Tabela4[[#This Row],[Controller]],".",Tabela4[[#This Row],[Action]])</f>
+        <v>TenilUser\Controller\Index.forgot</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1222,10 +1268,17 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>64</v>
+      </c>
+      <c r="F20" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" t="str">
+        <f xml:space="preserve"> CONCATENATE(Tabela4[[#This Row],[Module]],"\Controller\",Tabela4[[#This Row],[Controller]],".",Tabela4[[#This Row],[Action]])</f>
+        <v>TenilUser\Controller\Index.index</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1236,16 +1289,17 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="F21" t="s">
-        <v>71</v>
-      </c>
-      <c r="G21" t="s">
-        <v>74</v>
+        <v>66</v>
+      </c>
+      <c r="G21" t="str">
+        <f xml:space="preserve"> CONCATENATE(Tabela4[[#This Row],[Module]],"\Controller\",Tabela4[[#This Row],[Controller]],".",Tabela4[[#This Row],[Action]])</f>
+        <v>TenilUser\Controller\Index.register</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1253,19 +1307,23 @@
         <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22" t="s">
-        <v>76</v>
+        <v>67</v>
+      </c>
+      <c r="F22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" t="str">
+        <f xml:space="preserve"> CONCATENATE(Tabela4[[#This Row],[Module]],"\Controller\",Tabela4[[#This Row],[Controller]],".",Tabela4[[#This Row],[Action]])</f>
+        <v>TenilUser\Controller\Index.reset</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1273,19 +1331,134 @@
         <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" t="str">
+        <f xml:space="preserve"> CONCATENATE(Tabela4[[#This Row],[Module]],"\Controller\",Tabela4[[#This Row],[Controller]],".",Tabela4[[#This Row],[Action]])</f>
+        <v>TenilUser\Controller\Profile.edit</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" t="s">
+        <v>72</v>
+      </c>
+      <c r="G24" t="str">
+        <f xml:space="preserve"> CONCATENATE(Tabela4[[#This Row],[Module]],"\Controller\",Tabela4[[#This Row],[Controller]],".",Tabela4[[#This Row],[Action]])</f>
+        <v>TenilUser\Controller\Profile.index</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="4" t="str">
+        <f xml:space="preserve"> CONCATENATE(Tabela4[[#This Row],[Module]],"\Controller\",Tabela4[[#This Row],[Controller]],".",Tabela4[[#This Row],[Action]])</f>
+        <v>TenilUser\Controller\Users.add</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" s="4" t="str">
+        <f xml:space="preserve"> CONCATENATE(Tabela4[[#This Row],[Module]],"\Controller\",Tabela4[[#This Row],[Controller]],".",Tabela4[[#This Row],[Action]])</f>
+        <v>TenilUser\Controller\Users.delete</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
         <v>14</v>
       </c>
-      <c r="E23" t="s">
-        <v>62</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="D27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" t="s">
         <v>51</v>
+      </c>
+      <c r="F27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="4" t="str">
+        <f xml:space="preserve"> CONCATENATE(Tabela4[[#This Row],[Module]],"\Controller\",Tabela4[[#This Row],[Controller]],".",Tabela4[[#This Row],[Action]])</f>
+        <v>TenilUser\Controller\Users.edit</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" s="4" t="str">
+        <f xml:space="preserve"> CONCATENATE(Tabela4[[#This Row],[Module]],"\Controller\",Tabela4[[#This Row],[Controller]],".",Tabela4[[#This Row],[Action]])</f>
+        <v>TenilUser\Controller\Users.index</v>
       </c>
     </row>
   </sheetData>
@@ -1301,7 +1474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/projeto.xlsx
+++ b/projeto.xlsx
@@ -823,8 +823,8 @@
   </sheetPr>
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G28" sqref="G25:G28"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/projeto.xlsx
+++ b/projeto.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -17,7 +17,7 @@
     <sheet name="Plan1" sheetId="1" r:id="rId3"/>
     <sheet name="Páginas" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -255,7 +255,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -382,7 +382,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -420,7 +420,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -455,6 +455,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -490,9 +507,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
